--- a/bundes_match_urls.xlsx
+++ b/bundes_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>x</t>
   </si>
@@ -125,6 +125,33 @@
     <t>36</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/d42e53df/Monchengladbach-Bayer-Leverkusen-August-23-2024-Bundesliga</t>
   </si>
   <si>
@@ -231,6 +258,33 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/4e23f1b6/St-Pauli-RB-Leipzig-September-22-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bf284236/Dortmund-Bochum-September-27-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/98d6a4cb/RB-Leipzig-Augsburg-September-28-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a1a2f716/Monchengladbach-Union-Berlin-September-28-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c2910931/Freiburg-St-Pauli-September-28-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d72309cf/Wolfsburg-Stuttgart-September-28-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fc9efe43/Mainz-05-Heidenheim-September-28-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ea3571c5/Bayern-Munich-Bayer-Leverkusen-September-28-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/791f7734/Holstein-Kiel-Eintracht-Frankfurt-September-29-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a0e9bb68/Hoffenheim-Werder-Bremen-September-29-2024-Bundesliga</t>
   </si>
 </sst>
 </file>
@@ -292,7 +346,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -300,7 +354,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -308,7 +362,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -316,7 +370,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -324,7 +378,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -332,7 +386,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -340,7 +394,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -348,7 +402,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -356,7 +410,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -364,7 +418,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -372,7 +426,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -380,7 +434,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -388,7 +442,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -396,7 +450,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -404,7 +458,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -412,7 +466,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -420,7 +474,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -428,7 +482,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -436,7 +490,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -444,7 +498,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -452,7 +506,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -460,7 +514,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
@@ -468,7 +522,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
@@ -476,7 +530,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
@@ -484,7 +538,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -492,7 +546,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
@@ -500,7 +554,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
@@ -508,7 +562,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
@@ -516,7 +570,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
@@ -524,7 +578,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -532,7 +586,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
@@ -540,7 +594,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -548,7 +602,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -556,7 +610,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
@@ -564,7 +618,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
@@ -572,7 +626,79 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/bundes_match_urls.xlsx
+++ b/bundes_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>x</t>
   </si>
@@ -152,6 +152,60 @@
     <t>45</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/d42e53df/Monchengladbach-Bayer-Leverkusen-August-23-2024-Bundesliga</t>
   </si>
   <si>
@@ -285,6 +339,60 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/a0e9bb68/Hoffenheim-Werder-Bremen-September-29-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dd751497/Augsburg-Monchengladbach-October-4-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5716e53f/Union-Berlin-Dortmund-October-5-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b6ae6f08/Werder-Bremen-Freiburg-October-5-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cb256282/Bayer-Leverkusen-Holstein-Kiel-October-5-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ecd2d8d1/Bochum-Wolfsburg-October-5-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/48a230e5/St-Pauli-Mainz-05-October-5-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8f593aee/Heidenheim-RB-Leipzig-October-6-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/47b6b5b9/Eintracht-Frankfurt-Bayern-Munich-October-6-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/122852eb/Stuttgart-Hoffenheim-October-6-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3a6031d4/Dortmund-St-Pauli-October-18-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/11e680f6/Mainz-05-RB-Leipzig-October-19-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1766e653/Bayer-Leverkusen-Eintracht-Frankfurt-October-19-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/19da909f/Freiburg-Augsburg-October-19-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/70f3717a/Hoffenheim-Bochum-October-19-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e0c0a8fe/Monchengladbach-Heidenheim-October-19-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7562a0c2/Bayern-Munich-Stuttgart-October-19-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/49aa197e/Holstein-Kiel-Union-Berlin-October-20-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/afaee823/Wolfsburg-Werder-Bremen-October-20-2024-Bundesliga</t>
   </si>
 </sst>
 </file>
@@ -346,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -354,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -362,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -370,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -378,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -386,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -394,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -402,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -410,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -418,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -426,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -434,7 +542,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -442,7 +550,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -450,7 +558,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -458,7 +566,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -466,7 +574,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -474,7 +582,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -482,7 +590,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -490,7 +598,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -498,7 +606,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -506,7 +614,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
@@ -514,7 +622,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -522,7 +630,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -530,7 +638,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -538,7 +646,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
@@ -546,7 +654,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
@@ -554,7 +662,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
@@ -562,7 +670,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
@@ -570,7 +678,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
@@ -578,7 +686,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
@@ -586,7 +694,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33">
@@ -594,7 +702,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34">
@@ -602,7 +710,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -610,7 +718,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
@@ -618,7 +726,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
@@ -626,7 +734,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -634,7 +742,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -642,7 +750,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
@@ -650,7 +758,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -658,7 +766,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42">
@@ -666,7 +774,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
@@ -674,7 +782,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44">
@@ -682,7 +790,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
@@ -690,7 +798,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46">
@@ -698,7 +806,151 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/bundes_match_urls.xlsx
+++ b/bundes_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>x</t>
   </si>
@@ -206,6 +206,63 @@
     <t>63</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/d42e53df/Monchengladbach-Bayer-Leverkusen-August-23-2024-Bundesliga</t>
   </si>
   <si>
@@ -393,6 +450,63 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/afaee823/Wolfsburg-Werder-Bremen-October-20-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ad43a11c/Mainz-05-Monchengladbach-October-25-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1cd904a3/Stuttgart-Holstein-Kiel-October-26-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5c672984/Augsburg-Dortmund-October-26-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/75894bbc/St-Pauli-Wolfsburg-October-26-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e12d2336/RB-Leipzig-Freiburg-October-26-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7c95858c/Werder-Bremen-Bayer-Leverkusen-October-26-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/47698a8f/Bochum-Bayern-Munich-October-27-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/90526971/Union-Berlin-Eintracht-Frankfurt-October-27-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fc665c18/Heidenheim-Hoffenheim-October-27-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c803a5eb/Bayer-Leverkusen-Stuttgart-November-1-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2e0fc0d2/Hoffenheim-St-Pauli-November-2-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/41c73b44/Wolfsburg-Augsburg-November-2-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/61af44e4/Bayern-Munich-Union-Berlin-November-2-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a51846c1/Holstein-Kiel-Heidenheim-November-2-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f5fc1b23/Eintracht-Frankfurt-Bochum-November-2-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7756d7d5/Dortmund-RB-Leipzig-November-2-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/86485b52/Freiburg-Mainz-05-November-3-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b9ce1157/Monchengladbach-Werder-Bremen-November-3-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/05b458bf/Union-Berlin-Freiburg-November-8-2024-Bundesliga</t>
   </si>
 </sst>
 </file>
@@ -454,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +624,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +656,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +664,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +680,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +688,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +696,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +704,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +712,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +744,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +752,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +760,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +768,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +776,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +784,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +792,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +800,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +808,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +816,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +824,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +832,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +840,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +848,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +856,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +864,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +872,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +880,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +888,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +896,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +904,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +912,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +920,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +928,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +936,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +944,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +952,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +960,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +968,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +976,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +984,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +992,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +1000,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +1008,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +1016,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +1024,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +1032,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61">
@@ -926,7 +1040,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62">
@@ -934,7 +1048,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63">
@@ -942,7 +1056,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +1064,159 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/bundes_match_urls.xlsx
+++ b/bundes_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>x</t>
   </si>
@@ -263,6 +263,30 @@
     <t>82</t>
   </si>
   <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/d42e53df/Monchengladbach-Bayer-Leverkusen-August-23-2024-Bundesliga</t>
   </si>
   <si>
@@ -507,6 +531,30 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/05b458bf/Union-Berlin-Freiburg-November-8-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/213e9aea/St-Pauli-Bayern-Munich-November-9-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/50ab5485/Bochum-Bayer-Leverkusen-November-9-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/58ac698f/Werder-Bremen-Holstein-Kiel-November-9-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ff7bcb61/Mainz-05-Dortmund-November-9-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/639bf27f/RB-Leipzig-Monchengladbach-November-9-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/67fa64af/Augsburg-Hoffenheim-November-10-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2155226b/Stuttgart-Eintracht-Frankfurt-November-10-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/27da1c68/Heidenheim-Wolfsburg-November-10-2024-Bundesliga</t>
   </si>
 </sst>
 </file>
@@ -568,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -576,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
@@ -592,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -600,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
@@ -608,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -616,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -624,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +680,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -640,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -648,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
@@ -656,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14">
@@ -664,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
@@ -672,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -680,7 +728,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -688,7 +736,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
@@ -696,7 +744,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +752,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
@@ -712,7 +760,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
@@ -720,7 +768,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
@@ -728,7 +776,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23">
@@ -736,7 +784,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
@@ -744,7 +792,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -752,7 +800,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -760,7 +808,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -768,7 +816,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
@@ -776,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
@@ -784,7 +832,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
@@ -792,7 +840,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -800,7 +848,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
@@ -808,7 +856,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
@@ -816,7 +864,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
@@ -824,7 +872,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
@@ -832,7 +880,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -840,7 +888,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
@@ -848,7 +896,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -856,7 +904,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
@@ -864,7 +912,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -872,7 +920,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -880,7 +928,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42">
@@ -888,7 +936,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43">
@@ -896,7 +944,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44">
@@ -904,7 +952,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45">
@@ -912,7 +960,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46">
@@ -920,7 +968,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47">
@@ -928,7 +976,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48">
@@ -936,7 +984,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49">
@@ -944,7 +992,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50">
@@ -952,7 +1000,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51">
@@ -960,7 +1008,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52">
@@ -968,7 +1016,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53">
@@ -976,7 +1024,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54">
@@ -984,7 +1032,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55">
@@ -992,7 +1040,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56">
@@ -1000,7 +1048,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57">
@@ -1008,7 +1056,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58">
@@ -1016,7 +1064,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59">
@@ -1024,7 +1072,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1080,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61">
@@ -1040,7 +1088,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62">
@@ -1048,7 +1096,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63">
@@ -1056,7 +1104,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64">
@@ -1064,7 +1112,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65">
@@ -1072,7 +1120,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66">
@@ -1080,7 +1128,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67">
@@ -1088,7 +1136,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68">
@@ -1096,7 +1144,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69">
@@ -1104,7 +1152,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70">
@@ -1112,7 +1160,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71">
@@ -1120,7 +1168,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72">
@@ -1128,7 +1176,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73">
@@ -1136,7 +1184,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74">
@@ -1144,7 +1192,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75">
@@ -1152,7 +1200,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76">
@@ -1160,7 +1208,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77">
@@ -1168,7 +1216,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78">
@@ -1176,7 +1224,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79">
@@ -1184,7 +1232,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80">
@@ -1192,7 +1240,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81">
@@ -1200,7 +1248,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82">
@@ -1208,7 +1256,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83">
@@ -1216,7 +1264,71 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/bundes_match_urls.xlsx
+++ b/bundes_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>x</t>
   </si>
@@ -287,6 +287,114 @@
     <t>90</t>
   </si>
   <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/d42e53df/Monchengladbach-Bayer-Leverkusen-August-23-2024-Bundesliga</t>
   </si>
   <si>
@@ -555,6 +663,114 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/27da1c68/Heidenheim-Wolfsburg-November-10-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/797e3d3e/Bayern-Munich-Augsburg-November-22-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/16895d71/Wolfsburg-Union-Berlin-November-23-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/573e0883/Bayer-Leverkusen-Heidenheim-November-23-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/72699490/Dortmund-Freiburg-November-23-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9552b88a/Stuttgart-Bochum-November-23-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b5f40472/Hoffenheim-RB-Leipzig-November-23-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b410a6e3/Eintracht-Frankfurt-Werder-Bremen-November-23-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eb577d48/Holstein-Kiel-Mainz-05-November-24-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b0221e69/Monchengladbach-St-Pauli-November-24-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5c8b9990/St-Pauli-Holstein-Kiel-November-29-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/19910993/Union-Berlin-Bayer-Leverkusen-November-30-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/358ea55d/Freiburg-Monchengladbach-November-30-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/61c993b3/Werder-Bremen-Stuttgart-November-30-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b0c93fa3/RB-Leipzig-Wolfsburg-November-30-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b1e5b315/Augsburg-Bochum-November-30-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/77d36005/Der-Klassiker-Dortmund-Bayern-Munich-November-30-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/16d2485c/Mainz-05-Hoffenheim-December-1-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/055831dc/Heidenheim-Eintracht-Frankfurt-December-1-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/41b2c9a7/Stuttgart-Union-Berlin-December-6-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/326bf78c/Bayer-Leverkusen-St-Pauli-December-7-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4442b38e/Eintracht-Frankfurt-Augsburg-December-7-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5b484005/Holstein-Kiel-RB-Leipzig-December-7-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/73bf4f3e/Bochum-Werder-Bremen-December-7-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/aff85c23/Bayern-Munich-Heidenheim-December-7-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/975c1d76/Monchengladbach-Dortmund-December-7-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4c76fa51/Wolfsburg-Mainz-05-December-8-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3b2c1622/Hoffenheim-Freiburg-December-8-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3142b1ac/Freiburg-Wolfsburg-December-13-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/171e1d37/Union-Berlin-Bochum-December-14-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9082168d/Monchengladbach-Holstein-Kiel-December-14-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b2439369/Augsburg-Bayer-Leverkusen-December-14-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dc3aa7be/Mainz-05-Bayern-Munich-December-14-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f9c6643f/St-Pauli-Werder-Bremen-December-14-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/406ac14d/Heidenheim-Stuttgart-December-15-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cf85934f/Dortmund-Hoffenheim-December-15-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7f0b7508/RB-Leipzig-Eintracht-Frankfurt-December-15-2024-Bundesliga</t>
   </si>
 </sst>
 </file>
@@ -616,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
@@ -624,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
@@ -632,7 +848,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
@@ -640,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
@@ -648,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +872,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +880,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9">
@@ -672,7 +888,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +896,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
@@ -688,7 +904,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
@@ -696,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
@@ -704,7 +920,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +928,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
@@ -720,7 +936,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
@@ -728,7 +944,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17">
@@ -736,7 +952,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18">
@@ -744,7 +960,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
@@ -752,7 +968,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20">
@@ -760,7 +976,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21">
@@ -768,7 +984,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22">
@@ -776,7 +992,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23">
@@ -784,7 +1000,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +1008,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25">
@@ -800,7 +1016,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26">
@@ -808,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27">
@@ -816,7 +1032,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28">
@@ -824,7 +1040,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29">
@@ -832,7 +1048,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30">
@@ -840,7 +1056,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31">
@@ -848,7 +1064,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32">
@@ -856,7 +1072,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33">
@@ -864,7 +1080,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34">
@@ -872,7 +1088,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35">
@@ -880,7 +1096,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36">
@@ -888,7 +1104,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37">
@@ -896,7 +1112,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38">
@@ -904,7 +1120,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39">
@@ -912,7 +1128,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40">
@@ -920,7 +1136,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41">
@@ -928,7 +1144,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42">
@@ -936,7 +1152,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43">
@@ -944,7 +1160,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44">
@@ -952,7 +1168,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45">
@@ -960,7 +1176,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46">
@@ -968,7 +1184,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47">
@@ -976,7 +1192,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48">
@@ -984,7 +1200,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49">
@@ -992,7 +1208,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50">
@@ -1000,7 +1216,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51">
@@ -1008,7 +1224,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52">
@@ -1016,7 +1232,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53">
@@ -1024,7 +1240,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54">
@@ -1032,7 +1248,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55">
@@ -1040,7 +1256,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56">
@@ -1048,7 +1264,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57">
@@ -1056,7 +1272,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58">
@@ -1064,7 +1280,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59">
@@ -1072,7 +1288,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60">
@@ -1080,7 +1296,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61">
@@ -1088,7 +1304,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62">
@@ -1096,7 +1312,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63">
@@ -1104,7 +1320,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64">
@@ -1112,7 +1328,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65">
@@ -1120,7 +1336,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66">
@@ -1128,7 +1344,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67">
@@ -1136,7 +1352,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68">
@@ -1144,7 +1360,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69">
@@ -1152,7 +1368,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70">
@@ -1160,7 +1376,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71">
@@ -1168,7 +1384,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72">
@@ -1176,7 +1392,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73">
@@ -1184,7 +1400,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74">
@@ -1192,7 +1408,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -1200,7 +1416,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -1208,7 +1424,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -1216,7 +1432,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -1224,7 +1440,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79">
@@ -1232,7 +1448,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80">
@@ -1240,7 +1456,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81">
@@ -1248,7 +1464,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82">
@@ -1256,7 +1472,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83">
@@ -1264,7 +1480,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1488,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85">
@@ -1280,7 +1496,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86">
@@ -1288,7 +1504,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87">
@@ -1296,7 +1512,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88">
@@ -1304,7 +1520,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89">
@@ -1312,7 +1528,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90">
@@ -1320,7 +1536,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91">
@@ -1328,7 +1544,295 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>180</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/bundes_match_urls.xlsx
+++ b/bundes_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
   <si>
     <t>x</t>
   </si>
@@ -395,6 +395,33 @@
     <t>126</t>
   </si>
   <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/d42e53df/Monchengladbach-Bayer-Leverkusen-August-23-2024-Bundesliga</t>
   </si>
   <si>
@@ -771,6 +798,33 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/7f0b7508/RB-Leipzig-Eintracht-Frankfurt-December-15-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b1590970/Bayern-Munich-RB-Leipzig-December-20-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0e787c0f/Hoffenheim-Monchengladbach-December-21-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1b681fd7/Eintracht-Frankfurt-Mainz-05-December-21-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3a05d86e/Werder-Bremen-Union-Berlin-December-21-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/446a9815/Stuttgart-St-Pauli-December-21-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8d956d1f/Holstein-Kiel-Augsburg-December-21-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9d56a702/Bayer-Leverkusen-Freiburg-December-21-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/adeb37a5/Bochum-Heidenheim-December-22-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6948e2d4/Wolfsburg-Dortmund-December-22-2024-Bundesliga</t>
   </si>
 </sst>
 </file>
@@ -832,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3">
@@ -840,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
@@ -848,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5">
@@ -856,7 +910,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
@@ -864,7 +918,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
@@ -872,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8">
@@ -880,7 +934,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
@@ -888,7 +942,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
@@ -896,7 +950,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
@@ -904,7 +958,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
@@ -912,7 +966,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
@@ -920,7 +974,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
@@ -928,7 +982,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
@@ -936,7 +990,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
@@ -944,7 +998,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -952,7 +1006,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -960,7 +1014,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
@@ -968,7 +1022,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
@@ -976,7 +1030,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21">
@@ -984,7 +1038,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22">
@@ -992,7 +1046,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23">
@@ -1000,7 +1054,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24">
@@ -1008,7 +1062,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25">
@@ -1016,7 +1070,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26">
@@ -1024,7 +1078,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27">
@@ -1032,7 +1086,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28">
@@ -1040,7 +1094,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29">
@@ -1048,7 +1102,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30">
@@ -1056,7 +1110,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31">
@@ -1064,7 +1118,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1126,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
@@ -1080,7 +1134,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34">
@@ -1088,7 +1142,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35">
@@ -1096,7 +1150,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36">
@@ -1104,7 +1158,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37">
@@ -1112,7 +1166,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38">
@@ -1120,7 +1174,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39">
@@ -1128,7 +1182,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
@@ -1136,7 +1190,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41">
@@ -1144,7 +1198,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42">
@@ -1152,7 +1206,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43">
@@ -1160,7 +1214,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44">
@@ -1168,7 +1222,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45">
@@ -1176,7 +1230,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46">
@@ -1184,7 +1238,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47">
@@ -1192,7 +1246,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48">
@@ -1200,7 +1254,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49">
@@ -1208,7 +1262,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50">
@@ -1216,7 +1270,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51">
@@ -1224,7 +1278,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52">
@@ -1232,7 +1286,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53">
@@ -1240,7 +1294,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54">
@@ -1248,7 +1302,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55">
@@ -1256,7 +1310,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56">
@@ -1264,7 +1318,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57">
@@ -1272,7 +1326,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58">
@@ -1280,7 +1334,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59">
@@ -1288,7 +1342,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60">
@@ -1296,7 +1350,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61">
@@ -1304,7 +1358,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62">
@@ -1312,7 +1366,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63">
@@ -1320,7 +1374,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64">
@@ -1328,7 +1382,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65">
@@ -1336,7 +1390,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66">
@@ -1344,7 +1398,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67">
@@ -1352,7 +1406,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68">
@@ -1360,7 +1414,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69">
@@ -1368,7 +1422,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70">
@@ -1376,7 +1430,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71">
@@ -1384,7 +1438,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72">
@@ -1392,7 +1446,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73">
@@ -1400,7 +1454,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74">
@@ -1408,7 +1462,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75">
@@ -1416,7 +1470,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76">
@@ -1424,7 +1478,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77">
@@ -1432,7 +1486,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78">
@@ -1440,7 +1494,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79">
@@ -1448,7 +1502,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80">
@@ -1456,7 +1510,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81">
@@ -1464,7 +1518,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82">
@@ -1472,7 +1526,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83">
@@ -1480,7 +1534,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84">
@@ -1488,7 +1542,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85">
@@ -1496,7 +1550,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86">
@@ -1504,7 +1558,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87">
@@ -1512,7 +1566,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88">
@@ -1520,7 +1574,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89">
@@ -1528,7 +1582,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90">
@@ -1536,7 +1590,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91">
@@ -1544,7 +1598,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92">
@@ -1552,7 +1606,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93">
@@ -1560,7 +1614,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94">
@@ -1568,7 +1622,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95">
@@ -1576,7 +1630,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96">
@@ -1584,7 +1638,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97">
@@ -1592,7 +1646,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98">
@@ -1600,7 +1654,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99">
@@ -1608,7 +1662,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100">
@@ -1616,7 +1670,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101">
@@ -1624,7 +1678,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102">
@@ -1632,7 +1686,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103">
@@ -1640,7 +1694,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104">
@@ -1648,7 +1702,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105">
@@ -1656,7 +1710,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="106">
@@ -1664,7 +1718,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107">
@@ -1672,7 +1726,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108">
@@ -1680,7 +1734,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109">
@@ -1688,7 +1742,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110">
@@ -1696,7 +1750,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111">
@@ -1704,7 +1758,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112">
@@ -1712,7 +1766,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113">
@@ -1720,7 +1774,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114">
@@ -1728,7 +1782,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115">
@@ -1736,7 +1790,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116">
@@ -1744,7 +1798,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117">
@@ -1752,7 +1806,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118">
@@ -1760,7 +1814,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119">
@@ -1768,7 +1822,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120">
@@ -1776,7 +1830,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121">
@@ -1784,7 +1838,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122">
@@ -1792,7 +1846,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="123">
@@ -1800,7 +1854,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124">
@@ -1808,7 +1862,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="125">
@@ -1816,7 +1870,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="126">
@@ -1824,7 +1878,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="127">
@@ -1832,7 +1886,79 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>252</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/bundes_match_urls.xlsx
+++ b/bundes_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
   <si>
     <t>x</t>
   </si>
@@ -422,6 +422,249 @@
     <t>135</t>
   </si>
   <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/d42e53df/Monchengladbach-Bayer-Leverkusen-August-23-2024-Bundesliga</t>
   </si>
   <si>
@@ -825,6 +1068,249 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/6948e2d4/Wolfsburg-Dortmund-December-22-2024-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/54ce0559/Dortmund-Bayer-Leverkusen-January-10-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/319e48db/Mainz-05-Bochum-January-11-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3e4b6950/Freiburg-Holstein-Kiel-January-11-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/606b4f3d/Hoffenheim-Wolfsburg-January-11-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7ff87749/St-Pauli-Eintracht-Frankfurt-January-11-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f3b5b40c/Heidenheim-Union-Berlin-January-11-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/95b5760f/Monchengladbach-Bayern-Munich-January-11-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ca3024b8/RB-Leipzig-Werder-Bremen-January-12-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e99a4554/Augsburg-Stuttgart-January-12-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0967d02c/Holstein-Kiel-Dortmund-January-14-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1f4078fa/Wolfsburg-Monchengladbach-January-14-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/826e71bd/Eintracht-Frankfurt-Freiburg-January-14-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bffe5cc0/Bayer-Leverkusen-Mainz-05-January-14-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0ed57a99/Bochum-St-Pauli-January-15-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/081e6d08/Stuttgart-RB-Leipzig-January-15-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/31d47dd3/Bayern-Munich-Hoffenheim-January-15-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/44a88ae4/Werder-Bremen-Heidenheim-January-15-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dbe65fff/Union-Berlin-Augsburg-January-15-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/005a65f4/Eintracht-Frankfurt-Dortmund-January-17-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/05f318cc/Bayern-Munich-Wolfsburg-January-18-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/14522bc5/Heidenheim-St-Pauli-January-18-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e057d531/Stuttgart-Freiburg-January-18-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f702b3ab/Bochum-RB-Leipzig-January-18-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fac01a25/Holstein-Kiel-Hoffenheim-January-18-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3bf36d69/Bayer-Leverkusen-Monchengladbach-January-18-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/abafaba1/Union-Berlin-Mainz-05-January-19-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/10062a04/Werder-Bremen-Augsburg-January-19-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fd026179/Wolfsburg-Holstein-Kiel-January-24-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/11d1c71c/Dortmund-Werder-Bremen-January-25-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/15fd87e3/Mainz-05-Stuttgart-January-25-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/be9e8dad/Augsburg-Heidenheim-January-25-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cfcc6770/RB-Leipzig-Bayer-Leverkusen-January-25-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f4b1b7e1/Freiburg-Bayern-Munich-January-25-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e1972a42/Monchengladbach-Bochum-January-25-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3b329c8a/Hoffenheim-Eintracht-Frankfurt-January-26-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/77f7b50a/St-Pauli-Union-Berlin-January-26-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5d31cfeb/Werder-Bremen-Mainz-05-January-31-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/138b9d28/Stuttgart-Monchengladbach-February-1-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/54a09715/Heidenheim-Dortmund-February-1-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5b710b34/Bayern-Munich-Holstein-Kiel-February-1-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b18bceea/St-Pauli-Augsburg-February-1-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/db02399e/Bochum-Freiburg-February-1-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/616b4ea5/Union-Berlin-RB-Leipzig-February-1-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2861d451/Eintracht-Frankfurt-Wolfsburg-February-2-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/be216889/Bayer-Leverkusen-Hoffenheim-February-2-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dede20b2/Bayern-Munich-Werder-Bremen-February-7-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/02b849f8/Freiburg-Heidenheim-February-8-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3a6ba600/Dortmund-Stuttgart-February-8-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/853e68b5/Wolfsburg-Bayer-Leverkusen-February-8-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cf6b4de4/Hoffenheim-Union-Berlin-February-8-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cff7de63/Mainz-05-Augsburg-February-8-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a3887d2e/Monchengladbach-Eintracht-Frankfurt-February-8-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/521f766a/Holstein-Kiel-Bochum-February-9-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/827c2291/RB-Leipzig-St-Pauli-February-9-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/594320d9/Augsburg-RB-Leipzig-February-14-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/451156e0/Bochum-Dortmund-February-15-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6ed0551d/Union-Berlin-Monchengladbach-February-15-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/75d89be3/St-Pauli-Freiburg-February-15-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/de63fff0/Stuttgart-Wolfsburg-February-15-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5da24f91/Bayer-Leverkusen-Bayern-Munich-February-15-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e8d6223f/Werder-Bremen-Hoffenheim-February-16-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a7eaacdb/Eintracht-Frankfurt-Holstein-Kiel-February-16-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ee260489/Heidenheim-Mainz-05-February-16-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/47e68da4/Freiburg-Werder-Bremen-February-21-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/93560e55/Monchengladbach-Augsburg-February-22-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9f784f25/Holstein-Kiel-Bayer-Leverkusen-February-22-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c6fc28ec/Mainz-05-St-Pauli-February-22-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cec14305/Wolfsburg-Bochum-February-22-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/937a7c71/Dortmund-Union-Berlin-February-22-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9420a8fb/RB-Leipzig-Heidenheim-February-23-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a994aa80/Bayern-Munich-Eintracht-Frankfurt-February-23-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/26c7700f/Hoffenheim-Stuttgart-February-23-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2359b29d/Stuttgart-Bayern-Munich-February-28-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/445a72d7/Werder-Bremen-Wolfsburg-March-1-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4b05dd9f/Bochum-Hoffenheim-March-1-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b63f6c52/Heidenheim-Monchengladbach-March-1-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e49b66ef/RB-Leipzig-Mainz-05-March-1-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e96a9875/St-Pauli-Dortmund-March-1-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3771f9a8/Eintracht-Frankfurt-Bayer-Leverkusen-March-1-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f7cc643f/Union-Berlin-Holstein-Kiel-March-2-2025-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a928bf8e/Augsburg-Freiburg-March-2-2025-Bundesliga</t>
   </si>
 </sst>
 </file>
@@ -886,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3">
@@ -894,7 +1380,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4">
@@ -902,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5">
@@ -910,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
@@ -918,7 +1404,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7">
@@ -926,7 +1412,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8">
@@ -934,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9">
@@ -942,7 +1428,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10">
@@ -950,7 +1436,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
@@ -958,7 +1444,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12">
@@ -966,7 +1452,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +1460,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14">
@@ -982,7 +1468,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15">
@@ -990,7 +1476,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16">
@@ -998,7 +1484,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17">
@@ -1006,7 +1492,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18">
@@ -1014,7 +1500,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19">
@@ -1022,7 +1508,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20">
@@ -1030,7 +1516,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21">
@@ -1038,7 +1524,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
@@ -1046,7 +1532,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
@@ -1054,7 +1540,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24">
@@ -1062,7 +1548,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
@@ -1070,7 +1556,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
@@ -1078,7 +1564,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
@@ -1086,7 +1572,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28">
@@ -1094,7 +1580,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29">
@@ -1102,7 +1588,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30">
@@ -1110,7 +1596,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31">
@@ -1118,7 +1604,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32">
@@ -1126,7 +1612,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>166</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33">
@@ -1134,7 +1620,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>167</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34">
@@ -1142,7 +1628,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35">
@@ -1150,7 +1636,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36">
@@ -1158,7 +1644,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37">
@@ -1166,7 +1652,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>171</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38">
@@ -1174,7 +1660,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39">
@@ -1182,7 +1668,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40">
@@ -1190,7 +1676,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
@@ -1198,7 +1684,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42">
@@ -1206,7 +1692,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43">
@@ -1214,7 +1700,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44">
@@ -1222,7 +1708,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45">
@@ -1230,7 +1716,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46">
@@ -1238,7 +1724,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>180</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47">
@@ -1246,7 +1732,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>181</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48">
@@ -1254,7 +1740,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>182</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49">
@@ -1262,7 +1748,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50">
@@ -1270,7 +1756,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51">
@@ -1278,7 +1764,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52">
@@ -1286,7 +1772,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53">
@@ -1294,7 +1780,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54">
@@ -1302,7 +1788,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>188</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55">
@@ -1310,7 +1796,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56">
@@ -1318,7 +1804,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57">
@@ -1326,7 +1812,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58">
@@ -1334,7 +1820,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59">
@@ -1342,7 +1828,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60">
@@ -1350,7 +1836,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61">
@@ -1358,7 +1844,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62">
@@ -1366,7 +1852,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63">
@@ -1374,7 +1860,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64">
@@ -1382,7 +1868,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65">
@@ -1390,7 +1876,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66">
@@ -1398,7 +1884,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67">
@@ -1406,7 +1892,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68">
@@ -1414,7 +1900,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69">
@@ -1422,7 +1908,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70">
@@ -1430,7 +1916,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>204</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71">
@@ -1438,7 +1924,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>205</v>
+        <v>286</v>
       </c>
     </row>
     <row r="72">
@@ -1446,7 +1932,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>206</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73">
@@ -1454,7 +1940,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>207</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74">
@@ -1462,7 +1948,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75">
@@ -1470,7 +1956,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>209</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76">
@@ -1478,7 +1964,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>210</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77">
@@ -1486,7 +1972,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>211</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78">
@@ -1494,7 +1980,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>212</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79">
@@ -1502,7 +1988,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80">
@@ -1510,7 +1996,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>214</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81">
@@ -1518,7 +2004,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>296</v>
       </c>
     </row>
     <row r="82">
@@ -1526,7 +2012,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
     </row>
     <row r="83">
@@ -1534,7 +2020,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
     </row>
     <row r="84">
@@ -1542,7 +2028,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85">
@@ -1550,7 +2036,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86">
@@ -1558,7 +2044,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
     </row>
     <row r="87">
@@ -1566,7 +2052,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>221</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88">
@@ -1574,7 +2060,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>222</v>
+        <v>303</v>
       </c>
     </row>
     <row r="89">
@@ -1582,7 +2068,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>223</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90">
@@ -1590,7 +2076,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
+        <v>305</v>
       </c>
     </row>
     <row r="91">
@@ -1598,7 +2084,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>225</v>
+        <v>306</v>
       </c>
     </row>
     <row r="92">
@@ -1606,7 +2092,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>226</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93">
@@ -1614,7 +2100,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>227</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94">
@@ -1622,7 +2108,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>228</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95">
@@ -1630,7 +2116,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>229</v>
+        <v>310</v>
       </c>
     </row>
     <row r="96">
@@ -1638,7 +2124,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>230</v>
+        <v>311</v>
       </c>
     </row>
     <row r="97">
@@ -1646,7 +2132,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>231</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98">
@@ -1654,7 +2140,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>232</v>
+        <v>313</v>
       </c>
     </row>
     <row r="99">
@@ -1662,7 +2148,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>233</v>
+        <v>314</v>
       </c>
     </row>
     <row r="100">
@@ -1670,7 +2156,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>234</v>
+        <v>315</v>
       </c>
     </row>
     <row r="101">
@@ -1678,7 +2164,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>235</v>
+        <v>316</v>
       </c>
     </row>
     <row r="102">
@@ -1686,7 +2172,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>236</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103">
@@ -1694,7 +2180,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>237</v>
+        <v>318</v>
       </c>
     </row>
     <row r="104">
@@ -1702,7 +2188,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>238</v>
+        <v>319</v>
       </c>
     </row>
     <row r="105">
@@ -1710,7 +2196,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>239</v>
+        <v>320</v>
       </c>
     </row>
     <row r="106">
@@ -1718,7 +2204,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>240</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107">
@@ -1726,7 +2212,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>241</v>
+        <v>322</v>
       </c>
     </row>
     <row r="108">
@@ -1734,7 +2220,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>242</v>
+        <v>323</v>
       </c>
     </row>
     <row r="109">
@@ -1742,7 +2228,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
+        <v>324</v>
       </c>
     </row>
     <row r="110">
@@ -1750,7 +2236,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
     </row>
     <row r="111">
@@ -1758,7 +2244,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>245</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112">
@@ -1766,7 +2252,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>246</v>
+        <v>327</v>
       </c>
     </row>
     <row r="113">
@@ -1774,7 +2260,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
     </row>
     <row r="114">
@@ -1782,7 +2268,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>248</v>
+        <v>329</v>
       </c>
     </row>
     <row r="115">
@@ -1790,7 +2276,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
+        <v>330</v>
       </c>
     </row>
     <row r="116">
@@ -1798,7 +2284,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>331</v>
       </c>
     </row>
     <row r="117">
@@ -1806,7 +2292,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>251</v>
+        <v>332</v>
       </c>
     </row>
     <row r="118">
@@ -1814,7 +2300,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>252</v>
+        <v>333</v>
       </c>
     </row>
     <row r="119">
@@ -1822,7 +2308,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>253</v>
+        <v>334</v>
       </c>
     </row>
     <row r="120">
@@ -1830,7 +2316,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>254</v>
+        <v>335</v>
       </c>
     </row>
     <row r="121">
@@ -1838,7 +2324,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>255</v>
+        <v>336</v>
       </c>
     </row>
     <row r="122">
@@ -1846,7 +2332,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>256</v>
+        <v>337</v>
       </c>
     </row>
     <row r="123">
@@ -1854,7 +2340,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>257</v>
+        <v>338</v>
       </c>
     </row>
     <row r="124">
@@ -1862,7 +2348,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>258</v>
+        <v>339</v>
       </c>
     </row>
     <row r="125">
@@ -1870,7 +2356,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="126">
@@ -1878,7 +2364,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>260</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127">
@@ -1886,7 +2372,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>261</v>
+        <v>342</v>
       </c>
     </row>
     <row r="128">
@@ -1894,7 +2380,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>262</v>
+        <v>343</v>
       </c>
     </row>
     <row r="129">
@@ -1902,7 +2388,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>263</v>
+        <v>344</v>
       </c>
     </row>
     <row r="130">
@@ -1910,7 +2396,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>264</v>
+        <v>345</v>
       </c>
     </row>
     <row r="131">
@@ -1918,7 +2404,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
     </row>
     <row r="132">
@@ -1926,7 +2412,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
     </row>
     <row r="133">
@@ -1934,7 +2420,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
     </row>
     <row r="134">
@@ -1942,7 +2428,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>268</v>
+        <v>349</v>
       </c>
     </row>
     <row r="135">
@@ -1950,7 +2436,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>269</v>
+        <v>350</v>
       </c>
     </row>
     <row r="136">
@@ -1958,7 +2444,655 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>270</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
